--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H2">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I2">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J2">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>89.92177054194698</v>
+        <v>44.64305940017499</v>
       </c>
       <c r="R2">
-        <v>359.6870821677879</v>
+        <v>178.5722376007</v>
       </c>
       <c r="S2">
-        <v>0.02052845192735961</v>
+        <v>0.01358552774230485</v>
       </c>
       <c r="T2">
-        <v>0.01103477938544723</v>
+        <v>0.007356980213643788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H3">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I3">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J3">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>22.89467213884634</v>
+        <v>11.71261991362333</v>
       </c>
       <c r="R3">
-        <v>137.368032833078</v>
+        <v>70.27571948174</v>
       </c>
       <c r="S3">
-        <v>0.005226678406823885</v>
+        <v>0.003564319401707006</v>
       </c>
       <c r="T3">
-        <v>0.004214290732350461</v>
+        <v>0.002895282518007244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H4">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I4">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J4">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>68.7414332373415</v>
+        <v>24.04327168780667</v>
       </c>
       <c r="R4">
-        <v>412.448599424049</v>
+        <v>144.25963012684</v>
       </c>
       <c r="S4">
-        <v>0.01569314304117583</v>
+        <v>0.007316714824638339</v>
       </c>
       <c r="T4">
-        <v>0.01265344108287432</v>
+        <v>0.005943338442361396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H5">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I5">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J5">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>16.14876837329475</v>
+        <v>11.90858848174</v>
       </c>
       <c r="R5">
-        <v>64.595073493179</v>
+        <v>47.63435392696</v>
       </c>
       <c r="S5">
-        <v>0.003686640212256531</v>
+        <v>0.003623955467302419</v>
       </c>
       <c r="T5">
-        <v>0.001981701375228913</v>
+        <v>0.001962483105094811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H6">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I6">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J6">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>69.53716352866367</v>
+        <v>8.193782234438334</v>
       </c>
       <c r="R6">
-        <v>417.222981171982</v>
+        <v>49.16269340663001</v>
       </c>
       <c r="S6">
-        <v>0.01587480217593376</v>
+        <v>0.002493486274373264</v>
       </c>
       <c r="T6">
-        <v>0.01279991353602116</v>
+        <v>0.002025449014369046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H7">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I7">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J7">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>59.5277661510205</v>
+        <v>40.82107013490667</v>
       </c>
       <c r="R7">
-        <v>357.166596906123</v>
+        <v>244.92642080944</v>
       </c>
       <c r="S7">
-        <v>0.01358973336945451</v>
+        <v>0.01242244120899503</v>
       </c>
       <c r="T7">
-        <v>0.01095745384281412</v>
+        <v>0.01009069974092422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J8">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>889.4392056335199</v>
+        <v>863.1489508965999</v>
       </c>
       <c r="R8">
-        <v>5336.635233801119</v>
+        <v>5178.8937053796</v>
       </c>
       <c r="S8">
-        <v>0.2030521626199431</v>
+        <v>0.2626686919691961</v>
       </c>
       <c r="T8">
-        <v>0.163721733098353</v>
+        <v>0.2133647370440562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J9">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>226.4570512534133</v>
@@ -1013,10 +1013,10 @@
         <v>2038.11346128072</v>
       </c>
       <c r="S9">
-        <v>0.05169841143306575</v>
+        <v>0.06891415135029343</v>
       </c>
       <c r="T9">
-        <v>0.06252693945025173</v>
+        <v>0.08396803786113578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J10">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>679.93907820364</v>
+        <v>464.8634079359467</v>
       </c>
       <c r="R10">
-        <v>6119.45170383276</v>
+        <v>4183.77067142352</v>
       </c>
       <c r="S10">
-        <v>0.1552248871025667</v>
+        <v>0.1414646489230401</v>
       </c>
       <c r="T10">
-        <v>0.1877376276754736</v>
+        <v>0.1723667601506572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J11">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>159.73159366566</v>
+        <v>230.24599552048</v>
       </c>
       <c r="R11">
-        <v>958.38956199396</v>
+        <v>1381.47597312288</v>
       </c>
       <c r="S11">
-        <v>0.03646550020182734</v>
+        <v>0.07006718181339111</v>
       </c>
       <c r="T11">
-        <v>0.02940227188082725</v>
+        <v>0.05691529398100283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J12">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>687.8098498081866</v>
+        <v>158.4222639432934</v>
       </c>
       <c r="R12">
-        <v>6190.28864827368</v>
+        <v>1425.80037548964</v>
       </c>
       <c r="S12">
-        <v>0.1570217240147113</v>
+        <v>0.04821018296501242</v>
       </c>
       <c r="T12">
-        <v>0.1899108223577339</v>
+        <v>0.05874141071434973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J13">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>588.80434314628</v>
+        <v>789.2528947351467</v>
       </c>
       <c r="R13">
-        <v>5299.23908831652</v>
+        <v>7103.27605261632</v>
       </c>
       <c r="S13">
-        <v>0.1344195246607212</v>
+        <v>0.2401810548198388</v>
       </c>
       <c r="T13">
-        <v>0.1625744630523964</v>
+        <v>0.2926471778216838</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H14">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I14">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J14">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>173.57281230291</v>
+        <v>1.60336166623</v>
       </c>
       <c r="R14">
-        <v>694.29124921164</v>
+        <v>9.62016999738</v>
       </c>
       <c r="S14">
-        <v>0.03962534447200122</v>
+        <v>0.0004879261119239157</v>
       </c>
       <c r="T14">
-        <v>0.02130004424435549</v>
+        <v>0.0003963404461609145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H15">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I15">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J15">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>44.19277563089</v>
+        <v>0.4206603676573334</v>
       </c>
       <c r="R15">
-        <v>265.15665378534</v>
+        <v>3.785943308916001</v>
       </c>
       <c r="S15">
-        <v>0.01008887241218318</v>
+        <v>0.0001280130253544958</v>
       </c>
       <c r="T15">
-        <v>0.0081346963017697</v>
+        <v>0.0001559767094141118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H16">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I16">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J16">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>132.689156550495</v>
+        <v>0.8635174352506667</v>
       </c>
       <c r="R16">
-        <v>796.13493930297</v>
+        <v>7.771656917256001</v>
       </c>
       <c r="S16">
-        <v>0.03029191879910857</v>
+        <v>0.0002627808270800519</v>
       </c>
       <c r="T16">
-        <v>0.02442448965169275</v>
+        <v>0.0003201837359250079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H17">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I17">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J17">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>31.1713962579675</v>
+        <v>0.4276986059440001</v>
       </c>
       <c r="R17">
-        <v>124.68558503187</v>
+        <v>2.566191635664</v>
       </c>
       <c r="S17">
-        <v>0.007116191170767265</v>
+        <v>0.0001301548629163742</v>
       </c>
       <c r="T17">
-        <v>0.003825208053288617</v>
+        <v>0.0001057242791021858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H18">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I18">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J18">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>134.22512657941</v>
+        <v>0.2942808246713334</v>
       </c>
       <c r="R18">
-        <v>805.35075947646</v>
+        <v>2.648527422042001</v>
       </c>
       <c r="S18">
-        <v>0.03064256899994884</v>
+        <v>8.955390516056522E-05</v>
       </c>
       <c r="T18">
-        <v>0.02470722024590124</v>
+        <v>0.0001091164231409038</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H19">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I19">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J19">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>114.904340947365</v>
+        <v>1.466094392010667</v>
       </c>
       <c r="R19">
-        <v>689.4260456841899</v>
+        <v>13.194849528096</v>
       </c>
       <c r="S19">
-        <v>0.02623178152706165</v>
+        <v>0.0004461536978673198</v>
       </c>
       <c r="T19">
-        <v>0.02115078548513859</v>
+        <v>0.0005436133197662795</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H20">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I20">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J20">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>52.460776589048</v>
+        <v>120.27761827147</v>
       </c>
       <c r="R20">
-        <v>314.7646595342879</v>
+        <v>481.1104730858798</v>
       </c>
       <c r="S20">
-        <v>0.01197639374524827</v>
+        <v>0.03660221637496026</v>
       </c>
       <c r="T20">
-        <v>0.009656611951040305</v>
+        <v>0.01982122349266987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H21">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I21">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J21">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>13.35685755425867</v>
+        <v>31.55621603576933</v>
       </c>
       <c r="R21">
-        <v>120.211717988328</v>
+        <v>189.337296214616</v>
       </c>
       <c r="S21">
-        <v>0.003049268342367452</v>
+        <v>0.009603012297011819</v>
       </c>
       <c r="T21">
-        <v>0.003687955040120133</v>
+        <v>0.007800488814338979</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H22">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I22">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J22">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>40.104069901436</v>
+        <v>64.77753749224266</v>
       </c>
       <c r="R22">
-        <v>360.936629112924</v>
+        <v>388.665224953456</v>
       </c>
       <c r="S22">
-        <v>0.009155452190290835</v>
+        <v>0.01971274022218123</v>
       </c>
       <c r="T22">
-        <v>0.01107311402562456</v>
+        <v>0.01601258072437784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H23">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I23">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J23">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>9.421266115133999</v>
+        <v>32.084195814616</v>
       </c>
       <c r="R23">
-        <v>56.52759669080399</v>
+        <v>128.336783258464</v>
       </c>
       <c r="S23">
-        <v>0.002150802940976019</v>
+        <v>0.009763684169174534</v>
       </c>
       <c r="T23">
-        <v>0.001734200613803475</v>
+        <v>0.005287334626037692</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H24">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I24">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J24">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>40.56830263158133</v>
+        <v>22.07574088861534</v>
       </c>
       <c r="R24">
-        <v>365.114723684232</v>
+        <v>132.454445331692</v>
       </c>
       <c r="S24">
-        <v>0.009261432969210771</v>
+        <v>0.006717966785964531</v>
       </c>
       <c r="T24">
-        <v>0.01120129308495595</v>
+        <v>0.005456977784494094</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.151194</v>
+      </c>
+      <c r="H25">
+        <v>2.302388</v>
+      </c>
+      <c r="I25">
+        <v>0.1158682409924353</v>
+      </c>
+      <c r="J25">
+        <v>0.08156503369835977</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>95.53593066666667</v>
+      </c>
+      <c r="N25">
+        <v>286.607792</v>
+      </c>
+      <c r="O25">
+        <v>0.2888506881305636</v>
+      </c>
+      <c r="P25">
+        <v>0.3333098390786051</v>
+      </c>
+      <c r="Q25">
+        <v>109.9803901678827</v>
+      </c>
+      <c r="R25">
+        <v>659.882341007296</v>
+      </c>
+      <c r="S25">
+        <v>0.03346862114314292</v>
+      </c>
+      <c r="T25">
+        <v>0.0271864282564413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.240679</v>
+      </c>
+      <c r="I26">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J26">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>104.480755</v>
+      </c>
+      <c r="N26">
+        <v>208.96151</v>
+      </c>
+      <c r="O26">
+        <v>0.3158951586858897</v>
+      </c>
+      <c r="P26">
+        <v>0.2430112830697999</v>
+      </c>
+      <c r="Q26">
+        <v>8.382107877548332</v>
+      </c>
+      <c r="R26">
+        <v>50.29264726528999</v>
+      </c>
+      <c r="S26">
+        <v>0.002550796487504585</v>
+      </c>
+      <c r="T26">
+        <v>0.002072001873269098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.240679</v>
+      </c>
+      <c r="I27">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J27">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N27">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O27">
+        <v>0.08287872686044118</v>
+      </c>
+      <c r="P27">
+        <v>0.09563520617408686</v>
+      </c>
+      <c r="Q27">
+        <v>2.199142374286445</v>
+      </c>
+      <c r="R27">
+        <v>19.792281368578</v>
+      </c>
+      <c r="S27">
+        <v>0.0006692307860744317</v>
+      </c>
+      <c r="T27">
+        <v>0.0008154202711907339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.240679</v>
+      </c>
+      <c r="I28">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J28">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>56.26987066666667</v>
+      </c>
+      <c r="N28">
+        <v>168.809612</v>
+      </c>
+      <c r="O28">
+        <v>0.170130659215481</v>
+      </c>
+      <c r="P28">
+        <v>0.1963167303233743</v>
+      </c>
+      <c r="Q28">
+        <v>4.514325400727556</v>
+      </c>
+      <c r="R28">
+        <v>40.628928606548</v>
+      </c>
+      <c r="S28">
+        <v>0.001373774418541201</v>
+      </c>
+      <c r="T28">
+        <v>0.00167386727005289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.240679</v>
+      </c>
+      <c r="I29">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J29">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>27.870364</v>
+      </c>
+      <c r="N29">
+        <v>55.740728</v>
+      </c>
+      <c r="O29">
+        <v>0.08426540426907815</v>
+      </c>
+      <c r="P29">
+        <v>0.06482354492233867</v>
+      </c>
+      <c r="Q29">
+        <v>2.235937112385333</v>
+      </c>
+      <c r="R29">
+        <v>13.415622674312</v>
+      </c>
+      <c r="S29">
+        <v>0.0006804279562937142</v>
+      </c>
+      <c r="T29">
+        <v>0.000552708931101155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.487268</v>
-      </c>
-      <c r="H25">
-        <v>1.461804</v>
-      </c>
-      <c r="I25">
-        <v>0.04352166345308978</v>
-      </c>
-      <c r="J25">
-        <v>0.04694211854808148</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>71.272429</v>
-      </c>
-      <c r="N25">
-        <v>213.817287</v>
-      </c>
-      <c r="O25">
-        <v>0.1821693528222338</v>
-      </c>
-      <c r="P25">
-        <v>0.2042716462128862</v>
-      </c>
-      <c r="Q25">
-        <v>34.728773933972</v>
-      </c>
-      <c r="R25">
-        <v>312.558965405748</v>
-      </c>
-      <c r="S25">
-        <v>0.007928313264996432</v>
-      </c>
-      <c r="T25">
-        <v>0.009588943832537061</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.240679</v>
+      </c>
+      <c r="I30">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J30">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>19.17638633333334</v>
+      </c>
+      <c r="N30">
+        <v>57.52915900000001</v>
+      </c>
+      <c r="O30">
+        <v>0.05797936283854631</v>
+      </c>
+      <c r="P30">
+        <v>0.06690339643179515</v>
+      </c>
+      <c r="Q30">
+        <v>1.538451162106778</v>
+      </c>
+      <c r="R30">
+        <v>13.846060458961</v>
+      </c>
+      <c r="S30">
+        <v>0.0004681729080355288</v>
+      </c>
+      <c r="T30">
+        <v>0.0005704424954413653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.240679</v>
+      </c>
+      <c r="I31">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J31">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>95.53593066666667</v>
+      </c>
+      <c r="N31">
+        <v>286.607792</v>
+      </c>
+      <c r="O31">
+        <v>0.2888506881305636</v>
+      </c>
+      <c r="P31">
+        <v>0.3333098390786051</v>
+      </c>
+      <c r="Q31">
+        <v>7.664497418974222</v>
+      </c>
+      <c r="R31">
+        <v>68.98047677076801</v>
+      </c>
+      <c r="S31">
+        <v>0.002332417260719594</v>
+      </c>
+      <c r="T31">
+        <v>0.002841919939789487</v>
       </c>
     </row>
   </sheetData>
